--- a/Reference/Control.xlsx
+++ b/Reference/Control.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nakaz\Desktop\Electronics Projects\Vacuum Tube Stuff\0. UE14500\Reference\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nakaz\Desktop\Electronics Projects\UEVTC Github\Reference\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5B36E8B-6F8E-4A90-BEE7-301BF60B6BCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40D650CA-2F4B-4A0A-90EB-E25246F11249}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0AB22C3B-598D-45EF-A25F-2EB67DB40221}"/>
   </bookViews>
@@ -769,9 +769,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -779,6 +776,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1095,6 +1095,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C731455F-84B3-46A0-AB8A-0445E2B94326}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="B4:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
@@ -1115,11 +1118,11 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:9">
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
       <c r="G4" s="8" t="s">
         <v>41</v>
       </c>
@@ -1182,11 +1185,11 @@
       </c>
     </row>
     <row r="8" spans="2:9">
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
       <c r="G8" s="6">
         <v>11</v>
       </c>
@@ -1241,11 +1244,11 @@
       </c>
     </row>
     <row r="12" spans="2:9">
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
       <c r="G12" s="6">
         <v>111</v>
       </c>
@@ -1337,11 +1340,11 @@
       </c>
     </row>
     <row r="18" spans="2:9">
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
       <c r="G18" s="6">
         <v>1101</v>
       </c>
@@ -1364,11 +1367,11 @@
       </c>
     </row>
     <row r="20" spans="2:9">
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
       <c r="G20" s="6">
         <v>1111</v>
       </c>
@@ -1380,11 +1383,11 @@
       </c>
     </row>
     <row r="21" spans="2:9">
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
     </row>
     <row r="22" spans="2:9">
       <c r="B22" s="10" t="s">
@@ -1409,6 +1412,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B18:D18"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="B8:D8"/>
@@ -1420,14 +1428,9 @@
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B18:D18"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="90" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>